--- a/planning.xlsx
+++ b/planning.xlsx
@@ -16,32 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
-  <si>
-    <t>sublime  text</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>responsive design</t>
   </si>
   <si>
-    <t>php</t>
-  </si>
-  <si>
     <t>laravel</t>
   </si>
   <si>
     <t>menu responsive</t>
   </si>
   <si>
-    <t>glup,js</t>
-  </si>
-  <si>
-    <t>application mobil</t>
-  </si>
-  <si>
-    <t>jquery date_piker</t>
-  </si>
-  <si>
     <t>version mobile</t>
   </si>
   <si>
@@ -70,13 +55,37 @@
   </si>
   <si>
     <t>CV angular</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to do </t>
+  </si>
+  <si>
+    <t>in process</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +93,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,8 +135,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,135 +443,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="21.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="2">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="2">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>19.36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="2">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="15" spans="1:7">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -165,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,6 +181,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +551,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -611,7 +614,7 @@
         <v>18</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1">
@@ -621,7 +624,7 @@
     <row r="5" spans="1:7">
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1">
